--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value445.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value445.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.563292025811974</v>
+        <v>1.151936173439026</v>
       </c>
       <c r="B1">
-        <v>1.571392445861555</v>
+        <v>2.024236440658569</v>
       </c>
       <c r="C1">
-        <v>1.735016600841449</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.589476598979067</v>
+        <v>2.2129807472229</v>
       </c>
       <c r="E1">
-        <v>1.518215061684669</v>
+        <v>1.157730579376221</v>
       </c>
     </row>
   </sheetData>
